--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1277105.109208999</v>
+        <v>1328124.064255084</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.6830760746</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7146405.650026687</v>
+        <v>7616439.670345819</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -671,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>68.90093309036382</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>99.22789100784752</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -722,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.45745267233641</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.857062697108432</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -871,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>141.7746939445032</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>195.5104445397025</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>92.01098438110735</v>
       </c>
       <c r="V7" t="n">
-        <v>113.1301917612142</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1133,19 +1135,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>264.9481049475941</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>160.4597552666941</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.02406136249662</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>35.21818527535722</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1354,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1370,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>106.4448542950183</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>134.9989678506928</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1664,13 +1666,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>204.5880147104794</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676069974</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>106.38799505241</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1825,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1856,7 +1858,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>52.26458687415245</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>11.39996927779299</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8335782919673</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>153.9723828910722</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2299,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.14175024859777</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>130.04008984845</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2530,7 +2532,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,7 +2721,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>124.734368464441</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>130.0400898484501</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>54.24413860624966</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3202,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>46.48011262115413</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3244,10 +3246,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>73.88082355467124</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3481,13 +3483,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>71.78780711257714</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3503,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3670,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>189.5733066869304</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.0436072631568</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>4.529107053860622</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3949,16 +3951,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>169.8571210237862</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>247.6770388427901</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4144,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>220.5479980920884</v>
       </c>
       <c r="X46" t="n">
-        <v>160.9061021023308</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1042.205662800889</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>615.3049328141888</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>192.012311999189</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>170.0757761874506</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>148.9919984172549</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
@@ -4331,49 +4333,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2124.681059525157</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1903.75548856979</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1645.400579166202</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>1287.911164292452</v>
       </c>
       <c r="W2" t="n">
-        <v>1471.030487888973</v>
+        <v>891.5198145927988</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.31048905672</v>
+        <v>883.8402198009501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1058.013623052015</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
-        <v>838.3748437825398</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M3" t="n">
-        <v>1389.040378766978</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N3" t="n">
-        <v>1389.040378766978</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.9200589091701</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="C4" t="n">
-        <v>494.9200589091701</v>
+        <v>791.3256356528027</v>
       </c>
       <c r="D4" t="n">
-        <v>482.3367733815576</v>
+        <v>628.0088627795734</v>
       </c>
       <c r="E4" t="n">
-        <v>316.1285675344111</v>
+        <v>461.8006569324269</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>289.9388827069873</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4486,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4519,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.0860276212358</v>
+        <v>981.4916043648684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1796.086427374292</v>
+        <v>831.8385222885896</v>
       </c>
       <c r="C5" t="n">
-        <v>1369.185697387593</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D5" t="n">
-        <v>1349.933480612997</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>1206.726719052893</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>781.6025372422929</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1923.058660820666</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1699405917395</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
+        <v>1145.829295018124</v>
+      </c>
+      <c r="N6" t="n">
         <v>1220.501010560616</v>
       </c>
-      <c r="N6" t="n">
-        <v>1771.166545545054</v>
-      </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>626.1818057320246</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>626.1818057320246</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>626.1818057320246</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="V7" t="n">
-        <v>1369.940874423964</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1095.088470596477</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>852.5245740422826</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>626.1818057320246</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.947823099961</v>
+        <v>813.6310375047708</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
         <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7775324461193</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
         <v>79.39509630577632</v>
@@ -4802,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.796187391491</v>
+        <v>1233.479401796301</v>
       </c>
     </row>
     <row r="9">
@@ -4884,25 +4886,25 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>909.0627552915378</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="C10" t="n">
-        <v>737.0901921704537</v>
+        <v>681.2762346339712</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>517.9594617607419</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4993,19 +4995,19 @@
         <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1934.533291375449</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1652.821823983478</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W10" t="n">
-        <v>1377.969420155991</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X10" t="n">
-        <v>1135.405523601796</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="Y10" t="n">
-        <v>909.0627552915378</v>
+        <v>871.4422033460369</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1022.395556141945</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>595.4948261552447</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>172.202205340245</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>172.202205340245</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>172.202205340245</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>172.202205340245</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1580.632070870094</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M11" t="n">
-        <v>2381.073683267897</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N11" t="n">
-        <v>3181.515295665699</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O11" t="n">
-        <v>3234.107524839607</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>3013.181953884241</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2655.69253901049</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2259.301189310837</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>1847.581190478584</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1442.243920433475</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L12" t="n">
-        <v>693.0265871760246</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M12" t="n">
-        <v>693.0265871760246</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="N12" t="n">
-        <v>693.0265871760246</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O12" t="n">
-        <v>693.0265871760246</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.7612160464561</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7886529253721</v>
+        <v>845.0285345763751</v>
       </c>
       <c r="D13" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68215049679215</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2097.088765190713</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1853.749417416613</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>1573.564968916917</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>1291.853501524946</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1017.001097697459</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1017.001097697459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>914.8755012984918</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>487.9747713117919</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>64.68215049679215</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>64.68215049679215</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>64.68215049679215</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>865.123762894595</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="M14" t="n">
-        <v>1665.565375292398</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N14" t="n">
-        <v>2466.006987690201</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O14" t="n">
-        <v>2466.006987690201</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P14" t="n">
-        <v>2778.022045335424</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2548.172484167038</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2151.781134467384</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1740.061135635131</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1334.723865590022</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="L15" t="n">
-        <v>865.123762894595</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M15" t="n">
-        <v>865.123762894595</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N15" t="n">
-        <v>865.123762894595</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O15" t="n">
-        <v>1665.565375292398</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.350470992599</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>478.9271847585218</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="C16" t="n">
-        <v>478.9271847585218</v>
+        <v>789.1743829682065</v>
       </c>
       <c r="D16" t="n">
-        <v>478.9271847585218</v>
+        <v>681.7117617031458</v>
       </c>
       <c r="E16" t="n">
-        <v>478.9271847585218</v>
+        <v>515.5035558559994</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>1015.517151278464</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.9271847585218</v>
+        <v>789.1743829682065</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5513,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
         <v>5115.135670291427</v>
@@ -5589,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7102578919605</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>1021.509065974867</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1066.303784803075</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1757.664925652886</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1482.812521825399</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1482.812521825399</v>
+        <v>973.9392920493918</v>
       </c>
       <c r="Y19" t="n">
-        <v>1256.469753515141</v>
+        <v>747.5965237391339</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.6894663516439</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>603.6894663516439</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2080.149468020199</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1799.965019520503</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1518.253552128532</v>
       </c>
       <c r="W22" t="n">
-        <v>1260.306816359498</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.742919805303</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y22" t="n">
-        <v>791.4001514950452</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6066,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>140.1622235167214</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>730.647150085061</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L24" t="n">
-        <v>730.647150085061</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M24" t="n">
-        <v>730.647150085061</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>730.647150085061</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.68756743822</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C25" t="n">
-        <v>869.7150043171358</v>
+        <v>396.9731123886033</v>
       </c>
       <c r="D25" t="n">
-        <v>706.3982314439065</v>
+        <v>233.656339515374</v>
       </c>
       <c r="E25" t="n">
-        <v>540.1900255967601</v>
+        <v>233.656339515374</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>233.656339515374</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1312.677474344533</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1070.113577790339</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y25" t="n">
-        <v>1070.113577790339</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
         <v>4997.579335409525</v>
@@ -6300,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3396.006290452855</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C28" t="n">
-        <v>3224.033727331771</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D28" t="n">
-        <v>3060.716954458542</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.765359144795</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>3864.912955317308</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>3622.349058763114</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y28" t="n">
-        <v>3396.006290452855</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1125.089101572745</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402536</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281452</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4824.7577092045</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4544.573260704805</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.861793312833</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>4208.069734114601</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>4208.069734114601</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6700,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
         <v>2011.818868109901</v>
@@ -6777,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1088.637176146456</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C34" t="n">
-        <v>916.6646130253723</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>753.347840152143</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>587.1396343049965</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>415.2778600795569</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>249.0208903737891</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U34" t="n">
-        <v>1832.396244838396</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V34" t="n">
-        <v>1832.396244838396</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W34" t="n">
-        <v>1557.543841010909</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X34" t="n">
-        <v>1314.979944456714</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y34" t="n">
-        <v>1088.637176146456</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7023,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.67900806781</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1411.826604240323</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1411.826604240323</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,34 +7162,34 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1263.481480696891</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.767261272151</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1192.866531285451</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1192.866531285451</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>766.8895914333086</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679215</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>865.123762894595</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1665.565375292398</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>2433.665912441805</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2292.970335480043</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>1896.57898578039</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>1896.57898578039</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1896.57898578039</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1992.543385290553</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C42" t="n">
-        <v>1875.037481808058</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D42" t="n">
-        <v>1771.197523323343</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E42" t="n">
-        <v>1666.49558959628</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F42" t="n">
-        <v>1572.849759279184</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G42" t="n">
-        <v>1478.795987496788</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H42" t="n">
-        <v>1425.419894259098</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I42" t="n">
-        <v>1425.419894259098</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J42" t="n">
-        <v>1425.419894259098</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K42" t="n">
-        <v>1425.419894259098</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L42" t="n">
-        <v>1425.419894259098</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M42" t="n">
-        <v>2225.861506656901</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="N42" t="n">
-        <v>3026.303119054704</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="O42" t="n">
-        <v>3234.107524839607</v>
+        <v>4284.474559841866</v>
       </c>
       <c r="P42" t="n">
-        <v>3234.107524839607</v>
+        <v>4539.701767086725</v>
       </c>
       <c r="Q42" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R42" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S42" t="n">
-        <v>3152.783277400862</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T42" t="n">
-        <v>3010.90334169854</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U42" t="n">
-        <v>2826.135145618177</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V42" t="n">
-        <v>2621.162006757443</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W42" t="n">
-        <v>2424.64062959066</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X42" t="n">
-        <v>2261.163283357324</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y42" t="n">
-        <v>2121.470394710616</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>845.3250872659144</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="C43" t="n">
-        <v>673.3525241448303</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="D43" t="n">
-        <v>673.3525241448303</v>
+        <v>3399.46422884086</v>
       </c>
       <c r="E43" t="n">
-        <v>507.1443182976839</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="F43" t="n">
-        <v>335.2825440722443</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0255743664764</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="U43" t="n">
-        <v>1504.397720842433</v>
+        <v>4615.100733636837</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.397720842433</v>
+        <v>4333.389266244865</v>
       </c>
       <c r="W43" t="n">
-        <v>1504.397720842433</v>
+        <v>4058.536862417378</v>
       </c>
       <c r="X43" t="n">
-        <v>1261.833824288238</v>
+        <v>3815.972965863184</v>
       </c>
       <c r="Y43" t="n">
-        <v>1035.49105597798</v>
+        <v>3589.630197552925</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1747.023064556786</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.122334570086</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>64.68215049679215</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>865.123762894595</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>1151.744818897791</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.186431295594</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453521</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2983.928697725678</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2983.928697725678</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2572.208698893425</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2166.871428848316</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1992.543385290553</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1875.037481808058</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1771.197523323343</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>1666.49558959628</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>1572.849759279184</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>1478.795987496788</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>1425.419894259098</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>1425.419894259098</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L45" t="n">
-        <v>1633.224300044002</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="M45" t="n">
-        <v>2433.665912441805</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="N45" t="n">
-        <v>3234.107524839607</v>
+        <v>555.1378205852488</v>
       </c>
       <c r="O45" t="n">
-        <v>3234.107524839607</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P45" t="n">
-        <v>3234.107524839607</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>3234.107524839607</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>3152.783277400862</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>3010.90334169854</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2826.135145618177</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2621.162006757443</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>2424.64062959066</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>2261.163283357324</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>2121.470394710616</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>845.1393234720196</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>673.1667603509355</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2001.75583013582</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>2001.75583013582</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V46" t="n">
-        <v>2001.75583013582</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W46" t="n">
-        <v>1726.903426308333</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="X46" t="n">
-        <v>1564.372010043353</v>
+        <v>1035.305292184085</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>1035.305292184085</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>84.50867025038121</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
@@ -7994,13 +7996,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
-        <v>549.9687528290792</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>579.3245936279221</v>
@@ -8070,13 +8072,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>203.6125166681525</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>97.8252091287798</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>96.76900350898808</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8532,16 +8534,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>454.9370402678085</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>371.0330466836703</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8553,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>607.201212966307</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>90.51442316805236</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>657.2064368952725</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>298.7446820670145</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8790,7 +8792,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>886.6939262492853</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>352.7420867043963</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9006,10 +9008,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>482.0566840416755</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9018,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.698770932124</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>148.826493427254</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>835.1882033210079</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9237,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>105.6391777587192</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>775.2973590804446</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,13 +9485,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>912.679259982217</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9644,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9714,10 +9716,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>58.8530437382756</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>197.3567057122801</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9726,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>291.2228204893258</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>705.1634862205228</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>304.4845953330648</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>768.7505555806109</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,10 +10837,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>124.138595085601</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>813.1387512681905</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>382.6985455853151</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>233.0753299089938</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>279.5761010481211</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11297,19 +11299,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>326.7958410194923</v>
+        <v>165.8504292605622</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>232.4185269010013</v>
+        <v>474.650675344883</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>188.4448404456872</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>33.4347291553637</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>149.3265060145336</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>55.29561009208696</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>117.9882506157207</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>228.7382883108599</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.430730732977736</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>86.93357140528681</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>160.1225587763472</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34.55431016026014</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>39.81175532423397</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0981677402029</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>217.8597411829624</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>95.87819318577303</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>198.2230562345409</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>113.008962604416</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>207.1065456054743</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>50.56495090172248</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.6062733854579</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>137.8291987530665</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>107.5254829909125</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>106.2374818822229</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>51.55588169712365</v>
       </c>
       <c r="X46" t="n">
-        <v>79.23215548632211</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490462.4122200998</v>
+        <v>651331.0624171941</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490462.4122200998</v>
+        <v>651331.0624171941</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661447.1369646922</v>
+        <v>661447.136964692</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661447.1369646922</v>
+        <v>661447.136964692</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661447.136964692</v>
+        <v>661447.1369646922</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661447.1369646922</v>
+        <v>661447.136964692</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661447.136964692</v>
+        <v>661447.1369646922</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490462.4122200998</v>
+        <v>651331.0624171941</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490462.4122200998</v>
+        <v>651331.0624171941</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393148.800907535</v>
+        <v>393148.8009075351</v>
       </c>
       <c r="C2" t="n">
+        <v>393148.8009075352</v>
+      </c>
+      <c r="D2" t="n">
         <v>393148.8009075351</v>
       </c>
-      <c r="D2" t="n">
-        <v>393148.8009075353</v>
-      </c>
       <c r="E2" t="n">
-        <v>281314.6956018534</v>
+        <v>373569.1848794163</v>
       </c>
       <c r="F2" t="n">
-        <v>281314.6956018535</v>
+        <v>373569.1848794166</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.5221177771</v>
+        <v>379370.522117777</v>
       </c>
       <c r="H2" t="n">
+        <v>379370.522117777</v>
+      </c>
+      <c r="I2" t="n">
         <v>379370.5221177769</v>
-      </c>
-      <c r="I2" t="n">
-        <v>379370.5221177768</v>
       </c>
       <c r="J2" t="n">
         <v>379370.5221177769</v>
@@ -26341,19 +26343,19 @@
         <v>379370.5221177769</v>
       </c>
       <c r="L2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="M2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.5221177767</v>
       </c>
       <c r="N2" t="n">
         <v>379370.5221177769</v>
       </c>
       <c r="O2" t="n">
-        <v>281314.6956018535</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="P2" t="n">
-        <v>281314.6956018535</v>
+        <v>373569.1848794165</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
+        <v>173998.4022791779</v>
+      </c>
+      <c r="D4" t="n">
         <v>173998.4022791778</v>
       </c>
-      <c r="D4" t="n">
-        <v>173998.4022791779</v>
-      </c>
       <c r="E4" t="n">
-        <v>43020.44595046938</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="F4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
@@ -26448,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="P4" t="n">
-        <v>43020.44595046937</v>
+        <v>57174.45239980773</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34700.58582380819</v>
+        <v>-34700.58582380807</v>
       </c>
       <c r="C6" t="n">
-        <v>151704.1475909292</v>
+        <v>151704.1475909293</v>
       </c>
       <c r="D6" t="n">
-        <v>151704.1475909293</v>
+        <v>151704.1475909291</v>
       </c>
       <c r="E6" t="n">
-        <v>113804.8641203598</v>
+        <v>32903.96675501519</v>
       </c>
       <c r="F6" t="n">
-        <v>189135.8152738222</v>
+        <v>240336.2543715764</v>
       </c>
       <c r="G6" t="n">
-        <v>114665.5462659272</v>
+        <v>235930.3239939862</v>
       </c>
       <c r="H6" t="n">
+        <v>243555.9460774676</v>
+      </c>
+      <c r="I6" t="n">
+        <v>243555.9460774676</v>
+      </c>
+      <c r="J6" t="n">
+        <v>98022.2761426511</v>
+      </c>
+      <c r="K6" t="n">
+        <v>243555.9460774676</v>
+      </c>
+      <c r="L6" t="n">
+        <v>243555.9460774676</v>
+      </c>
+      <c r="M6" t="n">
+        <v>70425.45487182781</v>
+      </c>
+      <c r="N6" t="n">
         <v>243555.9460774675</v>
       </c>
-      <c r="I6" t="n">
-        <v>243555.9460774675</v>
-      </c>
-      <c r="J6" t="n">
-        <v>98022.27614265106</v>
-      </c>
-      <c r="K6" t="n">
-        <v>243555.9460774675</v>
-      </c>
-      <c r="L6" t="n">
-        <v>243555.9460774677</v>
-      </c>
-      <c r="M6" t="n">
-        <v>180682.0091120937</v>
-      </c>
-      <c r="N6" t="n">
-        <v>243555.9460774676</v>
-      </c>
       <c r="O6" t="n">
-        <v>189135.8152738221</v>
+        <v>240336.2543715763</v>
       </c>
       <c r="P6" t="n">
-        <v>189135.8152738221</v>
+        <v>240336.2543715764</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>331.394738696082</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>4.095730177743476</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2261524721606</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>162.7373373116017</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>279.9424765091178</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>23.20587070611069</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>185.3716196335914</v>
       </c>
       <c r="V7" t="n">
-        <v>165.7641609568372</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>157.6836177392387</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27904,13 +27906,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>240.8241420779645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>117.6595437820004</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>129.3279385133177</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
@@ -34714,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L3" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>556.2278131155941</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.42597529544646</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
+        <v>75.42597529544641</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35252,16 +35254,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>432.5378064344752</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35273,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>568.8891705336841</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>53.12346381202826</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>848.3818838166624</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>315.166724894165</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>459.6574502083421</v>
       </c>
       <c r="L15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>127.0556522224253</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>797.7972439649839</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>83.23994392538583</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>752.782272366215</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>891.3362317686754</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36364,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>38.24192940494226</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>666.8514437878999</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>267.053332433633</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>746.2354688663813</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,10 +37557,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>102.3677538807724</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>775.8591284337444</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>345.307586229291</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.8052598432924</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>289.5162181850463</v>
+        <v>128.5708064261162</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9034401867717</v>
+        <v>452.1355886306534</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328124.064255084</v>
+        <v>1327406.074140225</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760746</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -667,10 +667,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>99.22789100784752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>307.6905268672954</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -831,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857062697108432</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -873,13 +873,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>264.5762848854872</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -907,13 +907,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5104445397025</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>57.09791961948127</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>92.01098438110735</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>264.9481049475941</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>232.565489603441</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>35.21818527535722</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9989678506928</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155061</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>145.2921865528443</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676069974</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>106.38799505241</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>205.6296692962677</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>101.9929615813389</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>11.39996927779299</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>153.9723828910722</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2481,16 +2481,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.04008984845</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>130.0400898484501</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2952,16 +2952,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>73.88082355467124</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>73.08612968844224</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>51.58543740429417</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3480,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3505,7 +3505,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3517,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>12.82988994718301</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>189.5733066869304</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3900,19 +3900,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>25.45817320599492</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>169.8571210237862</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4036,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>245.9424894880796</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>3.27035522424712</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>220.5479980920884</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4336,19 +4336,19 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.681059525157</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1903.75548856979</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.400579166202</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>1287.911164292452</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W2" t="n">
-        <v>891.5198145927988</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X2" t="n">
-        <v>883.8402198009501</v>
+        <v>1562.485398567287</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K3" t="n">
-        <v>201.1892506764427</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L3" t="n">
-        <v>201.1892506764427</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M3" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
         <v>1302.520320645319</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>791.3256356528027</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>791.3256356528027</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>628.0088627795734</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>461.8006569324269</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>289.9388827069873</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4488,13 +4488,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="V4" t="n">
-        <v>1482.686776502613</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W4" t="n">
-        <v>1207.834372675126</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X4" t="n">
-        <v>1207.834372675126</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>981.4916043648684</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885896</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1923.058660820666</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
         <v>1771.166545545054</v>
@@ -4749,16 +4749,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1961.835816717766</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
         <v>1961.835816717766</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.6310375047708</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728575</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>549.9383681074144</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>1657.02415662523</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>323.6423572907505</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>681.2762346339712</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>681.2762346339712</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>517.9594617607419</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1372.637375483782</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1097.784971656295</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1097.784971656295</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.4422033460369</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
         <v>2111.574999549778</v>
@@ -5047,22 +5047,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1741.388990499732</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2745.67509191879</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>3721.926150405491</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563419</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067602</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5086,7 +5086,7 @@
         <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>371.7744341585812</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>371.7744341585812</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>371.7744341585812</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M12" t="n">
-        <v>371.7744341585812</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N12" t="n">
-        <v>646.4020714735193</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O12" t="n">
-        <v>646.4020714735193</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P12" t="n">
         <v>1362.599788512017</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.001097697459</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C13" t="n">
-        <v>845.0285345763751</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D13" t="n">
-        <v>681.7117617031458</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E13" t="n">
-        <v>515.5035558559994</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.088765190713</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.749417416613</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.564968916917</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V13" t="n">
-        <v>1291.853501524946</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W13" t="n">
-        <v>1017.001097697459</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.001097697459</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.001097697459</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5284,22 +5284,22 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>2994.337835136581</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5308,22 +5308,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y14" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>555.1378205852488</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>555.1378205852488</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>555.1378205852488</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>555.1378205852488</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.1743829682065</v>
+        <v>1083.489499143503</v>
       </c>
       <c r="C16" t="n">
-        <v>789.1743829682065</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D16" t="n">
-        <v>681.7117617031458</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E16" t="n">
-        <v>515.5035558559994</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F16" t="n">
-        <v>343.6417816305598</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724326</v>
+        <v>2072.783235629222</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>2072.783235629222</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.081047832659</v>
+        <v>1791.07176823725</v>
       </c>
       <c r="W16" t="n">
-        <v>1258.081047832659</v>
+        <v>1516.219364409763</v>
       </c>
       <c r="X16" t="n">
-        <v>1015.517151278464</v>
+        <v>1273.655467855569</v>
       </c>
       <c r="Y16" t="n">
-        <v>789.1743829682065</v>
+        <v>1273.655467855569</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5521,22 +5521,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2184.700581617281</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>747.5965237391339</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>575.6239606180499</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>412.3071877448206</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>246.0989818976742</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F19" t="n">
-        <v>246.0989818976742</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>973.9392920493918</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.5965237391339</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5831,25 +5831,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2080.149468020199</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1799.965019520503</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1518.253552128532</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1243.401148301044</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1000.83725174685</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>774.4944834365917</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.654482149731</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3813.905540636432</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4659.050190787244</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>275.5106105659859</v>
+        <v>184.7102578919605</v>
       </c>
       <c r="L24" t="n">
-        <v>275.5106105659859</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>568.9456755096874</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>396.9731123886033</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>233.656339515374</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>233.656339515374</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.1116442217531</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M27" t="n">
-        <v>381.4468456473314</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6469,19 +6469,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.618246195026</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6548,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6706,16 +6706,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
         <v>4541.493855905342</v>
@@ -6779,28 +6779,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1112.773316863137</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>769.9464360574118</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6888,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1503.646164133598</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1429.01906963393</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.455173079735</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>960.1124047694775</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.576687723259</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7028,13 +7028,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>557.3635891120873</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C37" t="n">
-        <v>154.4092158344085</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D37" t="n">
-        <v>154.4092158344085</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E37" t="n">
-        <v>154.4092158344085</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4092158344085</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N39" t="n">
-        <v>374.0002026854196</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1263.481480696891</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8002552472883</v>
+        <v>616.7597400424227</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8276921262043</v>
+        <v>444.7871769213386</v>
       </c>
       <c r="D40" t="n">
-        <v>268.510919252975</v>
+        <v>281.4704040481093</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>115.2621982009629</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>115.2621982009629</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>115.2621982009629</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7353,31 +7353,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838399</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446428</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1275.832373618941</v>
       </c>
       <c r="X40" t="n">
-        <v>793.966223959354</v>
+        <v>1033.268477064746</v>
       </c>
       <c r="Y40" t="n">
-        <v>793.966223959354</v>
+        <v>806.9257087544884</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7417,16 +7417,16 @@
         <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>2107.813759290661</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4430.205429563419</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
         <v>4430.205429563419</v>
@@ -7438,25 +7438,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822645</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.19946946369</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>3195.159613368996</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M42" t="n">
-        <v>3195.159613368996</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>4284.474559841866</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>4284.474559841866</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>4539.701767086725</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3399.46422884086</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>3399.46422884086</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>3399.46422884086</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="E43" t="n">
-        <v>3233.256022993713</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155813</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>4786.673583155813</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>4615.100733636837</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>4333.389266244865</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.536862417378</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>3815.972965863184</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>3589.630197552925</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
         <v>2876.781500254679</v>
@@ -7675,25 +7675,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1378205852488</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>555.1378205852488</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N45" t="n">
-        <v>555.1378205852488</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.1393234720196</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C46" t="n">
-        <v>673.1667603509355</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D46" t="n">
-        <v>509.8499874777062</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6417816305598</v>
+        <v>203.1489022541153</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>203.1489022541153</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>203.1489022541153</v>
       </c>
       <c r="H46" t="n">
         <v>199.8455131387141</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.081047832659</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>1035.305292184085</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.305292184085</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1035.305292184085</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,22 +8057,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931265</v>
       </c>
       <c r="K3" t="n">
-        <v>180.6729970931265</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>111.3736009736648</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>372.2051051843582</v>
       </c>
       <c r="M6" t="n">
         <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>96.76900350898808</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>548.8576414812762</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>371.0330466836703</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P9" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>607.201212966307</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8704,16 +8704,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>106.0949474728485</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,13 +8780,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>298.7446820670145</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>886.6939262492853</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>482.0566840416755</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9020,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>835.1882033210079</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,22 +9248,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>775.2973590804446</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>867.7664080100944</v>
@@ -9491,7 +9491,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>912.679259982217</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>772.395863235019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>197.3567057122801</v>
+        <v>105.6391777587192</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>291.2228204893258</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>324.3764525304035</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10196,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10354,19 +10354,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
@@ -10427,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>768.7505555806109</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0004784218839</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O36" t="n">
         <v>921.6378271075471</v>
@@ -10685,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,19 +10828,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10901,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10910,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10919,13 +10919,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>124.138595085601</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,19 +11065,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>767.9501536413031</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>382.6985455853151</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11144,7 +11144,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11156,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>279.5761010481211</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,10 +11305,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>165.8504292605622</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11381,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>474.650675344883</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4347291553637</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>71.98949189919261</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>73.42412869296891</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>55.29561009208696</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>35.27628500009129</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>68.15019490184626</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.7382883108599</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>86.93357140528681</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.55431016026014</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0981677402029</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>63.42025955381634</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283262</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.2230562345409</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>115.1781793365028</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113.008962604416</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>129.5284158597441</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>50.56495090172248</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>136.2254319385021</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>107.5254829909125</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>107.9720312369334</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.08795058268</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>51.55588169712365</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>661447.1369646922</v>
+        <v>661447.136964692</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661447.136964692</v>
+        <v>661447.1369646922</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661447.1369646922</v>
+        <v>661447.136964692</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661447.136964692</v>
+        <v>661447.1369646922</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661447.136964692</v>
+        <v>661447.1369646923</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393148.8009075351</v>
+        <v>393148.800907535</v>
       </c>
       <c r="C2" t="n">
         <v>393148.8009075352</v>
@@ -26322,13 +26322,13 @@
         <v>393148.8009075351</v>
       </c>
       <c r="E2" t="n">
-        <v>373569.1848794163</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="F2" t="n">
-        <v>373569.1848794166</v>
+        <v>373569.1848794165</v>
       </c>
       <c r="G2" t="n">
-        <v>379370.522117777</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="H2" t="n">
         <v>379370.522117777</v>
@@ -26346,13 +26346,13 @@
         <v>379370.5221177769</v>
       </c>
       <c r="M2" t="n">
-        <v>379370.5221177767</v>
+        <v>379370.5221177769</v>
       </c>
       <c r="N2" t="n">
-        <v>379370.5221177769</v>
+        <v>379370.522117777</v>
       </c>
       <c r="O2" t="n">
-        <v>373569.1848794165</v>
+        <v>373569.1848794164</v>
       </c>
       <c r="P2" t="n">
         <v>373569.1848794165</v>
@@ -26420,10 +26420,10 @@
         <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
+        <v>173998.4022791778</v>
+      </c>
+      <c r="D4" t="n">
         <v>173998.4022791779</v>
-      </c>
-      <c r="D4" t="n">
-        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
         <v>57174.45239980773</v>
@@ -26435,7 +26435,7 @@
         <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187965</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34700.58582380807</v>
+        <v>-34700.58582380819</v>
       </c>
       <c r="C6" t="n">
         <v>151704.1475909293</v>
@@ -26530,40 +26530,40 @@
         <v>151704.1475909291</v>
       </c>
       <c r="E6" t="n">
-        <v>32903.96675501519</v>
+        <v>32831.44965861481</v>
       </c>
       <c r="F6" t="n">
-        <v>240336.2543715764</v>
+        <v>240263.7372751758</v>
       </c>
       <c r="G6" t="n">
-        <v>235930.3239939862</v>
+        <v>235879.2933318018</v>
       </c>
       <c r="H6" t="n">
-        <v>243555.9460774676</v>
+        <v>243504.9154152834</v>
       </c>
       <c r="I6" t="n">
-        <v>243555.9460774676</v>
+        <v>243504.9154152833</v>
       </c>
       <c r="J6" t="n">
-        <v>98022.2761426511</v>
+        <v>97971.24548046671</v>
       </c>
       <c r="K6" t="n">
-        <v>243555.9460774676</v>
+        <v>243504.9154152832</v>
       </c>
       <c r="L6" t="n">
-        <v>243555.9460774676</v>
+        <v>243504.9154152832</v>
       </c>
       <c r="M6" t="n">
-        <v>70425.45487182781</v>
+        <v>70374.42420964375</v>
       </c>
       <c r="N6" t="n">
-        <v>243555.9460774675</v>
+        <v>243504.9154152834</v>
       </c>
       <c r="O6" t="n">
-        <v>240336.2543715763</v>
+        <v>240263.7372751758</v>
       </c>
       <c r="P6" t="n">
-        <v>240336.2543715764</v>
+        <v>240263.7372751758</v>
       </c>
     </row>
   </sheetData>
@@ -27387,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.095730177743476</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>93.59337047736312</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.7373373116017</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>12.80631912921154</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>23.20587070611069</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
+        <v>350.5048792244489</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>185.3716196335914</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>157.6836177392387</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>159.8619465992155</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>129.3279385133177</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.642779091942156e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>263.0232516395698</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>568.8891705336841</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35424,16 +35424,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>848.3818838166624</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>459.6574502083421</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>797.7972439649839</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>845.2513212958648</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>891.3362317686754</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>734.9646003355872</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>174.9574718789468</v>
+        <v>83.23994392538583</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>269.8797922757842</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>286.0644100977806</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>746.2354688663813</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>459.6574502083422</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O36" t="n">
         <v>898.4659373853249</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,19 +37548,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>102.3677538807724</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391563</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,19 +37785,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>729.6381112086802</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>345.307586229291</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>257.8052598432924</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,10 +38025,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>128.5708064261162</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>452.1355886306534</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
